--- a/medicine/Mort/Cimetière_Saint-Michel_de_Carcassonne/Cimetière_Saint-Michel_de_Carcassonne.xlsx
+++ b/medicine/Mort/Cimetière_Saint-Michel_de_Carcassonne/Cimetière_Saint-Michel_de_Carcassonne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Michel_de_Carcassonne</t>
+          <t>Cimetière_Saint-Michel_de_Carcassonne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Saint-Michel est l'un des cimetières municipaux de Carcassonne dans le département de l'Aude[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Saint-Michel est l'un des cimetières municipaux de Carcassonne dans le département de l'Aude,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Michel_de_Carcassonne</t>
+          <t>Cimetière_Saint-Michel_de_Carcassonne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière a été fondé à l'extérieur des murs de la ville en 1778 prenant la suite d'un ancien cimetière de pestiférés dont le souvenir est rappelé par une stèle de 1623 sur le mur Est[3]. Il est agrandi en 1870. Sa chapelle bénie en 1784 est placée sous le vocable de saint Roch, patron des pèlerins et protecteur contre les épidémies. Elle accueillait les dépouilles d'ecclésiastiques, principalement ceux du chapitre de chanoines de la cathédrale Saint-Michel.
-Ce cimetière est riche d'un patrimoine architectural et historique remarquable. Nombreuses sont les tombes ou chapelles du XIXe siècle qui rappellent les styles en vogue chez les familles notables  d'alors : style romain comme sur la via Appia, sarcophages, décors néoromans ou néogothiques, bustes, bas-reliefs (comme la pleureuse sur la tombe Arnigues-Darpas, signé Jean Guilhem) ou médaillons (colonne du proviseur Charles Robert mort en 1874). Le visiteur remarque la statue du chasseur alpin tué en 1915, Gustave Sudre, debout les bras croisés[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière a été fondé à l'extérieur des murs de la ville en 1778 prenant la suite d'un ancien cimetière de pestiférés dont le souvenir est rappelé par une stèle de 1623 sur le mur Est. Il est agrandi en 1870. Sa chapelle bénie en 1784 est placée sous le vocable de saint Roch, patron des pèlerins et protecteur contre les épidémies. Elle accueillait les dépouilles d'ecclésiastiques, principalement ceux du chapitre de chanoines de la cathédrale Saint-Michel.
+Ce cimetière est riche d'un patrimoine architectural et historique remarquable. Nombreuses sont les tombes ou chapelles du XIXe siècle qui rappellent les styles en vogue chez les familles notables  d'alors : style romain comme sur la via Appia, sarcophages, décors néoromans ou néogothiques, bustes, bas-reliefs (comme la pleureuse sur la tombe Arnigues-Darpas, signé Jean Guilhem) ou médaillons (colonne du proviseur Charles Robert mort en 1874). Le visiteur remarque la statue du chasseur alpin tué en 1915, Gustave Sudre, debout les bras croisés.
 Le cimetière Saint-Michel possède un carré militaire avec un monument aux morts intitulé Y penser toujours de Jacques Villeneuve érigé en 1906.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Michel_de_Carcassonne</t>
+          <t>Cimetière_Saint-Michel_de_Carcassonne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albert Domec (1901-1948), rugbyman;
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Albert Domec (1901-1948), rugbyman;
 Claude-Louis Estève (1890-1933), philosophe, ami de Joë Bousquet;
 Henri Mouton (1873-1962), haut fonctionnaire français, fondateur de la Loterie nationale;
 Jacques Ourtal (1868-1962), peintre;
@@ -555,15 +571,49 @@
 Jules Sauzède (1844-1913), maire de Carcassonne, député de l'Aude;
 Paul Lacombe (1837-1927), compositeur;
 Achille Mir (1822-1901), poète (médaillon de bronze);
-Chanoine Léopold Verguet (1817-1914), missionnaire en Mélanésie, photographe de la Cité[5];
+Chanoine Léopold Verguet (1817-1914), missionnaire en Mélanésie, photographe de la Cité;
 Théophile Marcou (1813-1893), avocat, journaliste, maire de Carcassonne, député de l'Aude;
 Eugène Birotteau (1813-1890), avocat, maire bonapartiste de Carcassonne, député de l'Aude;
 Rose Joseph Teisseire (1793-1858), maire de Carcassonne, député de l'Aude, préfet du Var;
 Sophie d'Arsénieff (morte à 35 ans en 1840), dame d'honneur de l'impératrice Alexandra de Russie;
 Jean-François Champagne (1763-1847), architecte régional ; avec ses fils Sargines Champagne (1797-1875), architecte du palais de justice (médaillon de marbre) et Hippolyte Champagne (1803-1883), peintre (stèle);
-Jacques Gamelin (1738-1803), peintre. Sa tombe fut restaurée par l'Académie des arts et des sciences de Carcassonne en 1889.
-Cénotaphes
-Tombeau de la famille du général Maurice Sarrail (1856-1929) où est déposé son cénotaphe. Il est Inhumé aux Invalides;
+Jacques Gamelin (1738-1803), peintre. Sa tombe fut restaurée par l'Académie des arts et des sciences de Carcassonne en 1889.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Michel_de_Carcassonne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Michel_de_Carcassonne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cénotaphes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tombeau de la famille du général Maurice Sarrail (1856-1929) où est déposé son cénotaphe. Il est Inhumé aux Invalides;
 Tombeau de la famille du général Jean-Hyacinthe Sébastien Chartrand (1779-1816) où est déposé son cénotaphe, fusillé sous la Restauration à Lille où il est inhumé.
 			Sépulture Rouan.
 			Tombe du compositeur Paul Lacombe.
